--- a/data/trans_orig/P23_1_2016_2023_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R2-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>80745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66774</v>
+        <v>67001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96762</v>
+        <v>99620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2748648670953197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2273073526833269</v>
+        <v>0.2280787704521945</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3293900779544644</v>
+        <v>0.339117954456905</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -763,19 +763,19 @@
         <v>54826</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41717</v>
+        <v>41848</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69993</v>
+        <v>69203</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.189903909235808</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1444978725314093</v>
+        <v>0.1449520723953365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2424410668067762</v>
+        <v>0.2397046919799337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>129</v>
@@ -784,19 +784,19 @@
         <v>135570</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116841</v>
+        <v>116111</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157043</v>
+        <v>158018</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2327532801546847</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2005969959574501</v>
+        <v>0.1993452413876457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2696181731886159</v>
+        <v>0.2712920241180009</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>213016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196999</v>
+        <v>194141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226987</v>
+        <v>226760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7251351329046802</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6706099220455357</v>
+        <v>0.6608820455430944</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7726926473166732</v>
+        <v>0.7719212295478055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -834,19 +834,19 @@
         <v>233877</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>218710</v>
+        <v>219500</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246986</v>
+        <v>246855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.810096090764192</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7575589331932239</v>
+        <v>0.7602953080200667</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8555021274685908</v>
+        <v>0.8550479276046636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>414</v>
@@ -855,19 +855,19 @@
         <v>446894</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>425421</v>
+        <v>424446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>465623</v>
+        <v>466353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7672467198453152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7303818268113842</v>
+        <v>0.728707975881999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7994030040425502</v>
+        <v>0.8006547586123542</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>84868</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68274</v>
+        <v>69407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103913</v>
+        <v>103408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1691566241698684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1360815882991705</v>
+        <v>0.1383405191152987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2071165503381515</v>
+        <v>0.2061107990193899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -980,19 +980,19 @@
         <v>39033</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26298</v>
+        <v>28652</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52405</v>
+        <v>53640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07493606310987927</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05048654743431819</v>
+        <v>0.05500708389261042</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1006065414258231</v>
+        <v>0.1029788800385284</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -1001,19 +1001,19 @@
         <v>123901</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104596</v>
+        <v>103922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146078</v>
+        <v>144873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1211629467376544</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.102284883616718</v>
+        <v>0.1016250950979546</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1428496666820575</v>
+        <v>0.1416713322862075</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>416843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>397798</v>
+        <v>398303</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433437</v>
+        <v>432304</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8308433758301316</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7928834496618489</v>
+        <v>0.7938892009806101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8639184117008296</v>
+        <v>0.8616594808847015</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -1051,19 +1051,19 @@
         <v>481853</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>468481</v>
+        <v>467246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>494588</v>
+        <v>492234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9250639368901208</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8993934585741769</v>
+        <v>0.8970211199614715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9495134525656815</v>
+        <v>0.9449929161073897</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>836</v>
@@ -1072,19 +1072,19 @@
         <v>898696</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>876519</v>
+        <v>877724</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>918001</v>
+        <v>918675</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8788370532623456</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8571503333179424</v>
+        <v>0.8583286677137925</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8977151163832822</v>
+        <v>0.8983749049020454</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>69962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56139</v>
+        <v>56516</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84714</v>
+        <v>84831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2196172752497238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.176224515288645</v>
+        <v>0.1774082844496778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2659231514184265</v>
+        <v>0.2662899335639086</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1197,19 +1197,19 @@
         <v>30421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20821</v>
+        <v>20981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42193</v>
+        <v>41828</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09045681199784104</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06191055300695565</v>
+        <v>0.06238667812001874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1254602262307485</v>
+        <v>0.1243748302156389</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -1218,19 +1218,19 @@
         <v>100384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83371</v>
+        <v>82094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117755</v>
+        <v>118612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1532872231782902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.12730899782325</v>
+        <v>0.1253582126552589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1798126096076238</v>
+        <v>0.181121190680879</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>248603</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>233851</v>
+        <v>233734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262426</v>
+        <v>262049</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7803827247502761</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7340768485815734</v>
+        <v>0.7337100664360914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.823775484711355</v>
+        <v>0.8225917155503223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>300</v>
@@ -1268,19 +1268,19 @@
         <v>305888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>294116</v>
+        <v>294481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315488</v>
+        <v>315328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9095431880021589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8745397737692515</v>
+        <v>0.875625169784361</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9380894469930443</v>
+        <v>0.9376133218799811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>560</v>
@@ -1289,19 +1289,19 @@
         <v>554490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537119</v>
+        <v>536262</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>571503</v>
+        <v>572780</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8467127768217099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8201873903923762</v>
+        <v>0.8188788093191213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8726910021767499</v>
+        <v>0.8746417873447413</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>98791</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81419</v>
+        <v>83719</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116510</v>
+        <v>119037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2670298508348287</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.220073236122885</v>
+        <v>0.2262898689627076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3149237520400117</v>
+        <v>0.3217516818898998</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1414,19 +1414,19 @@
         <v>50706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38148</v>
+        <v>39450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64807</v>
+        <v>65056</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1313643577136356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09882884582125732</v>
+        <v>0.1022036485000001</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1678942856653038</v>
+        <v>0.1685403904011439</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>148</v>
@@ -1435,19 +1435,19 @@
         <v>149498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127625</v>
+        <v>128406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173246</v>
+        <v>171931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1977584106439846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1688242724847743</v>
+        <v>0.1698579912554486</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.229173393988635</v>
+        <v>0.227433676627871</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>271173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253454</v>
+        <v>250927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>288545</v>
+        <v>286245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7329701491651712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6850762479599876</v>
+        <v>0.6782483181101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7799267638771149</v>
+        <v>0.7737101310372922</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>308</v>
@@ -1485,19 +1485,19 @@
         <v>335292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321191</v>
+        <v>320942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>347850</v>
+        <v>346548</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8686356422863645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8321057143346962</v>
+        <v>0.831459609598856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9011711541787427</v>
+        <v>0.8977963514999999</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>563</v>
@@ -1506,19 +1506,19 @@
         <v>606464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>582716</v>
+        <v>584031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>628337</v>
+        <v>627556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8022415893560154</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.770826606011365</v>
+        <v>0.772566323372129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8311757275152257</v>
+        <v>0.8301420087445517</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>44815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33016</v>
+        <v>33814</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57076</v>
+        <v>57966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2121728001682036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1563083482839756</v>
+        <v>0.1600876210826493</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2702187073226491</v>
+        <v>0.2744319097639125</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1631,19 +1631,19 @@
         <v>21679</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14176</v>
+        <v>13619</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32905</v>
+        <v>32032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09917920167244532</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06485200962362209</v>
+        <v>0.06230527460806564</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.150535243472114</v>
+        <v>0.1465425113155921</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1652,19 +1652,19 @@
         <v>66495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53462</v>
+        <v>52481</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83466</v>
+        <v>82771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1547077650491461</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1243857057083641</v>
+        <v>0.122102308556306</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1941932018299472</v>
+        <v>0.192576252225956</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>166406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154145</v>
+        <v>153255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178205</v>
+        <v>177407</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7878271998317964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7297812926773511</v>
+        <v>0.7255680902360875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8436916517160243</v>
+        <v>0.8399123789173505</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -1702,19 +1702,19 @@
         <v>196908</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185682</v>
+        <v>186555</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204411</v>
+        <v>204968</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9008207983275547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.849464756527886</v>
+        <v>0.8534574886844077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9351479903763775</v>
+        <v>0.9376947253919344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -1723,19 +1723,19 @@
         <v>363313</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>346342</v>
+        <v>347037</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>376346</v>
+        <v>377327</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8452922349508539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8058067981700529</v>
+        <v>0.8074237477740446</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8756142942916361</v>
+        <v>0.877897691443694</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>51389</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39091</v>
+        <v>39329</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64747</v>
+        <v>65562</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1953055534722321</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1485665042850839</v>
+        <v>0.1494697550083288</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.246069806097093</v>
+        <v>0.2491676019118601</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1848,19 +1848,19 @@
         <v>16800</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10128</v>
+        <v>9873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26681</v>
+        <v>27134</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06151101603997339</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03708309578028395</v>
+        <v>0.03614848910937155</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09769201236665018</v>
+        <v>0.09935041646109585</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1869,19 +1869,19 @@
         <v>68189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53435</v>
+        <v>54531</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83534</v>
+        <v>84063</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1271617531909913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09964821094782043</v>
+        <v>0.1016914838355143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1557784458198059</v>
+        <v>0.1567652234449177</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>211734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198376</v>
+        <v>197561</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224032</v>
+        <v>223794</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8046944465277679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7539301939029069</v>
+        <v>0.7508323980881398</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8514334957149161</v>
+        <v>0.8505302449916711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -1919,19 +1919,19 @@
         <v>256315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>246434</v>
+        <v>245981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262987</v>
+        <v>263242</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9384889839600266</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9023079876333497</v>
+        <v>0.9006495835389041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9629169042197161</v>
+        <v>0.9638515108906285</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>453</v>
@@ -1940,19 +1940,19 @@
         <v>468049</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>452704</v>
+        <v>452175</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>482803</v>
+        <v>481707</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8728382468090087</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8442215541801942</v>
+        <v>0.8432347765550824</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9003517890521797</v>
+        <v>0.8983085161644859</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>132045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>112776</v>
+        <v>110300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154207</v>
+        <v>152507</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2014454411798235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1720488518244438</v>
+        <v>0.1682720599595959</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2352552622996054</v>
+        <v>0.2326629869473754</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -2065,19 +2065,19 @@
         <v>87173</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>71350</v>
+        <v>71227</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>107016</v>
+        <v>105945</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1264585460654794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1035046936145632</v>
+        <v>0.1033266643611011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1552445038626152</v>
+        <v>0.1536912625271749</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>197</v>
@@ -2086,19 +2086,19 @@
         <v>219217</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>190415</v>
+        <v>192508</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248074</v>
+        <v>249994</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1630081844717043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1415908847003051</v>
+        <v>0.1431470919063346</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1844659073790128</v>
+        <v>0.1858936005116041</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>523441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>501279</v>
+        <v>502979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>542710</v>
+        <v>545186</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7985545588201765</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7647447377003946</v>
+        <v>0.7673370130526246</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8279511481755559</v>
+        <v>0.831727940040404</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>563</v>
@@ -2136,19 +2136,19 @@
         <v>602166</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>582323</v>
+        <v>583394</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>617989</v>
+        <v>618112</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8735414539345205</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8447554961373848</v>
+        <v>0.8463087374728251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8964953063854367</v>
+        <v>0.8966733356388989</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1026</v>
@@ -2157,19 +2157,19 @@
         <v>1125608</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1096751</v>
+        <v>1094831</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1154410</v>
+        <v>1152317</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8369918155282957</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8155340926209872</v>
+        <v>0.814106399488396</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8584091152996949</v>
+        <v>0.8568529080936654</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>140666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119622</v>
+        <v>120825</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>162608</v>
+        <v>164079</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1806686273924612</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1536410754606791</v>
+        <v>0.1551861125654602</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2088509916754545</v>
+        <v>0.210740787573221</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2282,19 +2282,19 @@
         <v>86541</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68884</v>
+        <v>68225</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105110</v>
+        <v>106885</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1047500042027435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08337814022922126</v>
+        <v>0.0825800163178021</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1272263913091527</v>
+        <v>0.129374735576393</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>208</v>
@@ -2303,19 +2303,19 @@
         <v>227207</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>198410</v>
+        <v>198013</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>260210</v>
+        <v>258244</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1415837472780951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1236394355509676</v>
+        <v>0.1233921146752816</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1621498515727097</v>
+        <v>0.1609249525741999</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>637917</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>615975</v>
+        <v>614504</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>658961</v>
+        <v>657758</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8193313726075387</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7911490083245452</v>
+        <v>0.789259212426779</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8463589245393207</v>
+        <v>0.8448138874345398</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>680</v>
@@ -2353,19 +2353,19 @@
         <v>739626</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>721057</v>
+        <v>719282</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>757283</v>
+        <v>757942</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8952499957972565</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8727736086908473</v>
+        <v>0.870625264423607</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9166218597707791</v>
+        <v>0.9174199836821979</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1297</v>
@@ -2374,19 +2374,19 @@
         <v>1377543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1344540</v>
+        <v>1346506</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1406340</v>
+        <v>1406737</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8584162527219049</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8378501484272907</v>
+        <v>0.8390750474258011</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8763605644490324</v>
+        <v>0.8766078853247188</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>703281</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2073099158523271</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>365</v>
@@ -2499,19 +2499,19 @@
         <v>387179</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1046</v>
@@ -2520,19 +2520,19 @@
         <v>1090460</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.157319150229109</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2689133</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2643353</v>
+        <v>2638177</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2739386</v>
+        <v>2735669</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7926900841476729</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7791954095055762</v>
+        <v>0.777669669070675</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8075033049140935</v>
+        <v>0.8064077844574894</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2968</v>
@@ -2570,19 +2570,19 @@
         <v>3151924</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3111287</v>
+        <v>3112499</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3188086</v>
+        <v>3190720</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8905995844993999</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8791173424258593</v>
+        <v>0.879459832249416</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9008176507793918</v>
+        <v>0.9015617489561615</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5516</v>
@@ -2591,19 +2591,19 @@
         <v>5841057</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5779552</v>
+        <v>5768435</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5903973</v>
+        <v>5900811</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.842680849770891</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8338077236276359</v>
+        <v>0.8322037633760674</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8517577547789049</v>
+        <v>0.8513015049722087</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>50361</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40130</v>
+        <v>40193</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63655</v>
+        <v>62399</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1579491684654907</v>
+        <v>0.1579491684654908</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1258606630692054</v>
+        <v>0.1260578951589611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1996410346798185</v>
+        <v>0.195704429556016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2960,19 +2960,19 @@
         <v>12436</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8219</v>
+        <v>8142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18154</v>
+        <v>17792</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03934702460138761</v>
+        <v>0.03934702460138762</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0260030841826608</v>
+        <v>0.02576190611543925</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05743962814734799</v>
+        <v>0.05629278990166163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -2981,19 +2981,19 @@
         <v>62797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52634</v>
+        <v>50523</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76922</v>
+        <v>77172</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09890818549962153</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08290037993174554</v>
+        <v>0.07957587849395469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1211553662424746</v>
+        <v>0.1215487109488941</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>268484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255190</v>
+        <v>256446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278715</v>
+        <v>278652</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8420508315345092</v>
+        <v>0.8420508315345093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8003589653201814</v>
+        <v>0.8042955704439841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8741393369307948</v>
+        <v>0.8739421048410388</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>513</v>
@@ -3031,19 +3031,19 @@
         <v>303625</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297907</v>
+        <v>298269</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307842</v>
+        <v>307919</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9606529753986125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9425603718526521</v>
+        <v>0.9437072100983384</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9739969158173393</v>
+        <v>0.9742380938845608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -3052,19 +3052,19 @@
         <v>572109</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557984</v>
+        <v>557734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>582272</v>
+        <v>584383</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9010918145003785</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8788446337575254</v>
+        <v>0.8784512890511058</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.917099620068255</v>
+        <v>0.9204241215060451</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>119511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98374</v>
+        <v>100447</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140919</v>
+        <v>143370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2252165896487388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1853853575464624</v>
+        <v>0.189291406137542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2655604369209768</v>
+        <v>0.2701792325241755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -3177,19 +3177,19 @@
         <v>66743</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54885</v>
+        <v>53416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81790</v>
+        <v>81855</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1221296850221398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1004309092525536</v>
+        <v>0.09774328934530913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1496624431121206</v>
+        <v>0.1497825645275286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>194</v>
@@ -3198,19 +3198,19 @@
         <v>186254</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>161763</v>
+        <v>161496</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>213332</v>
+        <v>211951</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.172914809177964</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1501780846558924</v>
+        <v>0.1499304060909058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1980535375806047</v>
+        <v>0.1967714832894917</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>411136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>389728</v>
+        <v>387277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432273</v>
+        <v>430200</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7747834103512611</v>
+        <v>0.7747834103512612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7344395630790231</v>
+        <v>0.7298207674758245</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8146146424535375</v>
+        <v>0.8107085938624579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>629</v>
@@ -3248,19 +3248,19 @@
         <v>479751</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>464704</v>
+        <v>464639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491609</v>
+        <v>493078</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8778703149778602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8503375568878795</v>
+        <v>0.8502174354724716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8995690907474464</v>
+        <v>0.9022567106546908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>905</v>
@@ -3269,19 +3269,19 @@
         <v>890887</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>863809</v>
+        <v>865190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>915378</v>
+        <v>915645</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8270851908220361</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.801946462419395</v>
+        <v>0.8032285167105087</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8498219153441071</v>
+        <v>0.8500695939090941</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>67688</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55331</v>
+        <v>56043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81598</v>
+        <v>82620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2142058943316514</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1751025160703741</v>
+        <v>0.177353685530687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2582259115603236</v>
+        <v>0.2614614090470808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3394,19 +3394,19 @@
         <v>49636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39403</v>
+        <v>40057</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60456</v>
+        <v>60925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1392777527918994</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1105639846432133</v>
+        <v>0.112400271942937</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1696380303867125</v>
+        <v>0.170954603296078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -3415,19 +3415,19 @@
         <v>117324</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101388</v>
+        <v>100563</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135072</v>
+        <v>134598</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1744914482340091</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.150790333664563</v>
+        <v>0.1495641984965894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2008881020891498</v>
+        <v>0.2001828712914999</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>248305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>234395</v>
+        <v>233373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>260662</v>
+        <v>259950</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7857941056683486</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7417740884396764</v>
+        <v>0.7385385909529192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8248974839296257</v>
+        <v>0.822646314469313</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>462</v>
@@ -3465,19 +3465,19 @@
         <v>306745</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295925</v>
+        <v>295456</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316978</v>
+        <v>316324</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8607222472081005</v>
+        <v>0.8607222472081008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8303619696132877</v>
+        <v>0.8290453967039219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8894360153567874</v>
+        <v>0.887599728057063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>731</v>
@@ -3486,19 +3486,19 @@
         <v>555051</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537303</v>
+        <v>537777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>570987</v>
+        <v>571812</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.825508551765991</v>
+        <v>0.8255085517659909</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7991118979108506</v>
+        <v>0.7998171287085002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.849209666335437</v>
+        <v>0.8504358015034107</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>107431</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87395</v>
+        <v>89043</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127878</v>
+        <v>131319</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2879069450826225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2342121665326366</v>
+        <v>0.2386284282410684</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3427034846113775</v>
+        <v>0.3519260177083559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -3611,19 +3611,19 @@
         <v>65094</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52216</v>
+        <v>52583</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79412</v>
+        <v>78710</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1542659225624074</v>
+        <v>0.1542659225624075</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1237468418309907</v>
+        <v>0.1246148757515285</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1881984093967293</v>
+        <v>0.1865340454905709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>210</v>
@@ -3632,19 +3632,19 @@
         <v>172525</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148184</v>
+        <v>150638</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194424</v>
+        <v>198946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2169839373172265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1863693504739719</v>
+        <v>0.1894567163330692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2445251008614251</v>
+        <v>0.2502132497762806</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>265714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>245267</v>
+        <v>241826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>285750</v>
+        <v>284102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7120930549173775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6572965153886224</v>
+        <v>0.6480739822916441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7657878334673635</v>
+        <v>0.7613715717589317</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>503</v>
@@ -3682,19 +3682,19 @@
         <v>356867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342549</v>
+        <v>343251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369745</v>
+        <v>369378</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8457340774375927</v>
+        <v>0.8457340774375928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8118015906032706</v>
+        <v>0.8134659545094292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8762531581690092</v>
+        <v>0.8753851242484716</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>681</v>
@@ -3703,19 +3703,19 @@
         <v>622582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>600683</v>
+        <v>596161</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>646923</v>
+        <v>644469</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7830160626827735</v>
+        <v>0.7830160626827734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7554748991385748</v>
+        <v>0.7497867502237188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8136306495260279</v>
+        <v>0.8105432836669307</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>15697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10655</v>
+        <v>10430</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22509</v>
+        <v>22795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07632106733147503</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05180729670276622</v>
+        <v>0.0507137629058401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.109444400971518</v>
+        <v>0.1108362694558215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -3828,19 +3828,19 @@
         <v>8832</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5505</v>
+        <v>5295</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14061</v>
+        <v>13859</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03887060447539756</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02422616020525047</v>
+        <v>0.02330239339256951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06188425813999545</v>
+        <v>0.06099382831181446</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -3849,19 +3849,19 @@
         <v>24528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18060</v>
+        <v>18128</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32353</v>
+        <v>32606</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05666364028602996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04172159912437749</v>
+        <v>0.04187721476320259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07473892714964207</v>
+        <v>0.07532336422639598</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>189968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183156</v>
+        <v>182870</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195010</v>
+        <v>195235</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9236789326685249</v>
+        <v>0.923678932668525</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.890555599028482</v>
+        <v>0.8891637305441782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9481927032972338</v>
+        <v>0.9492862370941599</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>472</v>
@@ -3899,19 +3899,19 @@
         <v>218383</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213154</v>
+        <v>213356</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221710</v>
+        <v>221920</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9611293955246025</v>
+        <v>0.9611293955246024</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9381157418600046</v>
+        <v>0.9390061716881857</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9757738397947496</v>
+        <v>0.9766976066074305</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>725</v>
@@ -3920,19 +3920,19 @@
         <v>408351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>400526</v>
+        <v>400273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414819</v>
+        <v>414751</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9433363597139702</v>
+        <v>0.9433363597139701</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9252610728503583</v>
+        <v>0.924676635773604</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9582784008756225</v>
+        <v>0.9581227852367976</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>44536</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35685</v>
+        <v>34829</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54928</v>
+        <v>54529</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1645171468859135</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1318205012945419</v>
+        <v>0.1286599962728348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2029062006518326</v>
+        <v>0.2014333439810222</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -4045,19 +4045,19 @@
         <v>11500</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7151</v>
+        <v>7090</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17816</v>
+        <v>17847</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0436020401324177</v>
+        <v>0.04360204013241768</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02711343540106276</v>
+        <v>0.02688255376661882</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06754753564387379</v>
+        <v>0.06766458818481438</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -4066,19 +4066,19 @@
         <v>56036</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45615</v>
+        <v>45974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68824</v>
+        <v>67857</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1048465306879813</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08534826747261418</v>
+        <v>0.08602071535260612</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1287738341322604</v>
+        <v>0.1269648976090863</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>226171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215779</v>
+        <v>216178</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235022</v>
+        <v>235878</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8354828531140867</v>
+        <v>0.8354828531140864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7970937993481673</v>
+        <v>0.7985666560189777</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.868179498705458</v>
+        <v>0.8713400037271654</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>440</v>
@@ -4116,19 +4116,19 @@
         <v>252250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245934</v>
+        <v>245903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256599</v>
+        <v>256660</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9563979598675825</v>
+        <v>0.956397959867582</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9324524643561263</v>
+        <v>0.9323354118151855</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9728865645989372</v>
+        <v>0.9731174462333811</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>733</v>
@@ -4137,19 +4137,19 @@
         <v>478421</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>465633</v>
+        <v>466600</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>488842</v>
+        <v>488483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8951534693120187</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8712261658677395</v>
+        <v>0.8730351023909136</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9146517325273855</v>
+        <v>0.913979284647394</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>143540</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122773</v>
+        <v>122758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168677</v>
+        <v>166038</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2000764809938888</v>
+        <v>0.2000764809938887</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1711292492287382</v>
+        <v>0.1711084202278534</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2351140117400249</v>
+        <v>0.2314351311606711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>142</v>
@@ -4262,19 +4262,19 @@
         <v>108060</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91566</v>
+        <v>92210</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>125450</v>
+        <v>124510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1406696480860216</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1191983172107188</v>
+        <v>0.1200367361336403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1633072799594369</v>
+        <v>0.1620835745555319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>286</v>
@@ -4283,19 +4283,19 @@
         <v>251601</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>223691</v>
+        <v>224370</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>281807</v>
+        <v>279648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1693582139444798</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1505713883140512</v>
+        <v>0.1510287586103508</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1896908136469005</v>
+        <v>0.1882372385232532</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>573887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>548750</v>
+        <v>551389</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>594654</v>
+        <v>594669</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7999235190061115</v>
+        <v>0.7999235190061112</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7648859882599752</v>
+        <v>0.7685648688393291</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8288707507712619</v>
+        <v>0.8288915797721469</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>815</v>
@@ -4333,19 +4333,19 @@
         <v>660125</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>642735</v>
+        <v>643675</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>676619</v>
+        <v>675975</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8593303519139783</v>
+        <v>0.8593303519139782</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8366927200405632</v>
+        <v>0.8379164254444682</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8808016827892811</v>
+        <v>0.8799632638663597</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1268</v>
@@ -4354,19 +4354,19 @@
         <v>1234011</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1203805</v>
+        <v>1205964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1261921</v>
+        <v>1261242</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8306417860555203</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8103091863530996</v>
+        <v>0.8117627614767468</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8494286116859489</v>
+        <v>0.8489712413896494</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>114644</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97721</v>
+        <v>95713</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132924</v>
+        <v>133608</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1438572498728068</v>
+        <v>0.1438572498728067</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.122622301943063</v>
+        <v>0.1201021994766961</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1667945714076189</v>
+        <v>0.1676532219062796</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -4479,19 +4479,19 @@
         <v>44241</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33346</v>
+        <v>34655</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55942</v>
+        <v>56826</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0532171095290803</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04011193121091214</v>
+        <v>0.04168579731408231</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06729157488780829</v>
+        <v>0.06835492793377985</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>202</v>
@@ -4500,19 +4500,19 @@
         <v>158885</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138421</v>
+        <v>139747</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181433</v>
+        <v>180945</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09757967680262442</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08501123216712317</v>
+        <v>0.0858256068013195</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1114272774354249</v>
+        <v>0.1111274394575653</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>682286</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>664006</v>
+        <v>663322</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>699209</v>
+        <v>701217</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8561427501271933</v>
+        <v>0.8561427501271932</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.833205428592381</v>
+        <v>0.8323467780937203</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.877377698056937</v>
+        <v>0.879897800523304</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1001</v>
@@ -4550,19 +4550,19 @@
         <v>787090</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>775389</v>
+        <v>774505</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>797985</v>
+        <v>796676</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9467828904709198</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9327084251121918</v>
+        <v>0.9316450720662204</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9598880687890879</v>
+        <v>0.9583142026859178</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1621</v>
@@ -4571,19 +4571,19 @@
         <v>1469377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1446829</v>
+        <v>1447317</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1489841</v>
+        <v>1488515</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9024203231973756</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8885727225645752</v>
+        <v>0.8888725605424347</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9149887678328767</v>
+        <v>0.9141743931986804</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>663408</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1879682382793692</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>526</v>
@@ -4696,19 +4696,19 @@
         <v>366543</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1289</v>
@@ -4717,19 +4717,19 @@
         <v>1029951</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1418520114208492</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>2865953</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2819467</v>
+        <v>2817174</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2911906</v>
+        <v>2909533</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8120317617206307</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7988605599857089</v>
+        <v>0.7982108282996929</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8250518135302651</v>
+        <v>0.8243794852869318</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4835</v>
@@ -4767,19 +4767,19 @@
         <v>3364837</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3330279</v>
+        <v>3331717</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3395038</v>
+        <v>3391732</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9017674578873482</v>
+        <v>0.9017674578873481</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8925060261441852</v>
+        <v>0.8928912956057744</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9098613528493423</v>
+        <v>0.9089752250221763</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7445</v>
@@ -4788,19 +4788,19 @@
         <v>6230789</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6178892</v>
+        <v>6174177</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6287588</v>
+        <v>6288522</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8581479885791508</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8510002560702562</v>
+        <v>0.8503509686758008</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.865970733410679</v>
+        <v>0.8660992727093764</v>
       </c>
     </row>
     <row r="30">
